--- a/public/abcd/Denomination wise Stock Ledger.xlsx
+++ b/public/abcd/Denomination wise Stock Ledger.xlsx
@@ -29,10 +29,10 @@
     <t>Denomination : All</t>
   </si>
   <si>
-    <t>From : 01-09-2018</t>
-  </si>
-  <si>
-    <t>To : 26-04-2019</t>
+    <t>From : 01-10-2018</t>
+  </si>
+  <si>
+    <t>To : 30-04-2019</t>
   </si>
   <si>
     <t>S. No</t>
@@ -104,7 +104,7 @@
     <t>Print taken by : Satya</t>
   </si>
   <si>
-    <t>Print taken at : 26-04-2019 15:55:35</t>
+    <t>Print taken at : 30-04-2019 14:33:01</t>
   </si>
 </sst>
 </file>
